--- a/medicine/Enfance/Mark_Haddon/Mark_Haddon.xlsx
+++ b/medicine/Enfance/Mark_Haddon/Mark_Haddon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Haddon, né le 28 octobre 1962 à Northampton, est un illustrateur, un romancier, un dramaturge et un poète britannique principalement connu pour son roman policier Le Bizarre Incident du chien pendant la nuit.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à la Uppingham School (en), puis au Marton College de l'Université d'Oxford, où il obtient une maîtrise en littérature anglaise.
 En 2003, il remporte le Prix Whitbread du meilleur roman et le Commonwealth Writers' Prize (Overall Best First Book) pour son roman policier Le Bizarre Incident du chien pendant la nuit, dont la narration est écrite sous la perspective d'un garçon autiste. La connaissance de l'autisme que démontre Haddon vient du fait qu'il a déjà travaillé avec des personnes autistes. Dans une entrevue accordée à Powells.com, l'auteur affirme qu'il s'agit du premier livre qu'il a intentionnellement écrit pour un public adulte ; il a été surpris quand la maison d'édition lui a suggéré de le publier à la fois pour les adultes et pour les enfants. Son deuxième roman pour adulte, Une situation légèrement délicate, est paru en français en 2007.
@@ -548,21 +562,105 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature d'enfance et de jeunesse
-Série Agent Z
-Agent Z Meets the Masked Crusader (1993)
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Agent Z</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agent Z Meets the Masked Crusader (1993)
 Agent Z Goes Wild (1994)
 Agent Z and the Penguin from Mars (1995)
 Agent Z and the Masked Crusader (1996)
-Agent Z and the Killer Bananas (1994)
-Série Baby Dinosaurs
-At Home (1994)
+Agent Z and the Killer Bananas (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Baby Dinosaurs</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>At Home (1994)
 In the Garden (1994)
 On Vacation (1994)
 At Playground (1994)
-On Holiday (1994)
-Autres romans pour enfants
-Gilbert's Gobstopper (1987)
+On Holiday (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans pour enfants</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gilbert's Gobstopper (1987)
 Toni and the Tomato Soup (1988)
 A Narrow Escape for Princess Sharon (1989)
 Gridzbi Spudvetch! (1992)
@@ -572,46 +670,184 @@
 The Ice Bear's Cave (2002)
 Footprints on the Moon (2009)
 Boom! (2009), nouvelle version de Gridzbi Spudvetch!
-Swimming and Flying (2013), court roman
-Romans pour adultes
-The Curious Incident of the Dog in the Night-Time (2003) Publié en français sous le titre Le Bizarre Incident du chien pendant la nuit, traduit par Odile Demange, Paris, NiL Éditions, 2004  (ISBN 2-84111-305-1) ; réédition, Paris, Pocket no 12418, 2005  (ISBN 2-266-14871-0)
+Swimming and Flying (2013), court roman</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Curious Incident of the Dog in the Night-Time (2003) Publié en français sous le titre Le Bizarre Incident du chien pendant la nuit, traduit par Odile Demange, Paris, NiL Éditions, 2004  (ISBN 2-84111-305-1) ; réédition, Paris, Pocket no 12418, 2005  (ISBN 2-266-14871-0)
 A Spot of Bother (2006) Publié en français sous le titre Une Situation légèrement délicate (en), traduit par Odile Demange, Paris, NiL Éditions, 2007  (ISBN 978-2-84111-347-7) ; réédition, Paris, Pocket no 13635, 2008  (ISBN 978-2-266-18183-9)Adapté au cinéma en 2009 : Une petite zone de turbulences
-The Red House (2012) Publié en français sous le titre Vacances à l'anglaise, traduit par Odile Demange, Paris, NiL Éditions, 2014  (ISBN 978-2-84111-621-8)
-Poésie
-The Talking Horse and the Sad Girl and the Village Under the Sea (2005)
-Théâtre
-Polar Bears (2010)
-The Curious Incident of the Dog in the Night-Time (2013), adaptation du roman éponyme par Simon Stephens supervisée par Mark Haddon
-Autres publications
-Stop What You're Doing and Read This! (2011) - écrit en collaboration avec plusieurs auteurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mark_Haddon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+The Red House (2012) Publié en français sous le titre Vacances à l'anglaise, traduit par Odile Demange, Paris, NiL Éditions, 2014  (ISBN 978-2-84111-621-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Talking Horse and the Sad Girl and the Village Under the Sea (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Polar Bears (2010)
+The Curious Incident of the Dog in the Night-Time (2013), adaptation du roman éponyme par Simon Stephens supervisée par Mark Haddon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Stop What You're Doing and Read This! (2011) - écrit en collaboration avec plusieurs auteurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1996 : Agent 'Z' and the Penguin from Mars  (série TV)
 1996 : The Wild House  (série TV)
@@ -622,31 +858,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mark_Haddon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mark_Haddon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Whitbread pour Le Bizarre Incident du chien pendant la nuit sacré meilleur livre de l'année 2003
 Commonwealth Writers' Prize (Overall Best First Book) pour Le Bizarre Incident du chien pendant la nuit</t>
